--- a/temp/finance/THU CHI 06-22.xlsx
+++ b/temp/finance/THU CHI 06-22.xlsx
@@ -31720,7 +31720,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" s="261" t="str">
         <f>"CTY CP-DT-TM HIEP BINH      Ngay: "&amp;TEXT(NOW(),"dd/mm/yyyy")</f>
-        <v>CTY CP-DT-TM HIEP BINH      Ngay: 01/10/2022</v>
+        <v>CTY CP-DT-TM HIEP BINH      Ngay: 25/10/2022</v>
       </c>
       <c r="B1" s="261"/>
       <c r="C1" s="261"/>
@@ -31754,7 +31754,7 @@
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="261" t="str">
         <f>"Ecco - Crescent Mall                 Gio:       "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Ecco - Crescent Mall                 Gio:       15:53</v>
+        <v>Ecco - Crescent Mall                 Gio:       07:19</v>
       </c>
       <c r="B2" s="261"/>
       <c r="C2" s="261"/>
